--- a/biology/Botanique/Astragale_de_Montpellier/Astragale_de_Montpellier.xlsx
+++ b/biology/Botanique/Astragale_de_Montpellier/Astragale_de_Montpellier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astragalus monspessulanus
 L’Astragale de Montpellier, parfois appelé Esparcette bâtarde (Astragalus monspessulanus), est une espèce de plante à fleurs de la famille des Fabacées (ou légumineuses) appartenant au genre Astragalus, caractérisé notamment par ses feuilles imparipennées à très nombreuses folioles. Pour l'astragale de Montpellier, le nombre de folioles varie entre 21 et 41, ce dernier chiffre étant le plus fréquent pour la sous-espèce monspessulanus, ici décrite.
@@ -515,17 +527,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace poussant surtout dans le sud de la France et de l'Europe, mais qu'on peut rencontrer jusque dans la région parisienne, où elle est cependant rare. On la rencontre surtout dans les collines ou en moyenne montagne, avec une nette préférence pour les sols calcaires (pelouses, lieux rocailleux).
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plante vivace poussant surtout dans le sud de la France et de l'Europe, mais qu'on peut rencontrer jusque dans la région parisienne, où elle est cependant rare. On la rencontre surtout dans les collines ou en moyenne montagne, avec une nette préférence pour les sols calcaires (pelouses, lieux rocailleux).
 Floraison : d'avril à juin.
 Pollinisation : entomogame.
-Dissémination : barochore.
-Morphologie générale et végétative
-Plante herbacée acaule poussant en touffes, d'une hauteur ne dépassant pas 20 cm, à poils rares ou absents. Feuilles imparipennées à nombreuses folioles vertes, ovales et pointues au début, elliptiques et sans pointe par la suite, à nervure centrale nettement marquée, à face supérieure glabre.
-Morphologie florale
-Inflorescence en forme de capitule (racème capituliforme), portée par un très long pédoncule. Fleurs roses, pourpres ou violacées, en groupe de 7 à 20. Calice tubulé à dents aigües. Corolle à étendard dépassant nettement les ailes et la carène.
-Fruit et graines
-Les fruits sont des gousses à peu près glabres, cylindriques et arquées, d'une longueur moyenne de 3 cm.
+Dissémination : barochore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Astragale_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astragale_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée acaule poussant en touffes, d'une hauteur ne dépassant pas 20 cm, à poils rares ou absents. Feuilles imparipennées à nombreuses folioles vertes, ovales et pointues au début, elliptiques et sans pointe par la suite, à nervure centrale nettement marquée, à face supérieure glabre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Astragale_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astragale_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inflorescence en forme de capitule (racème capituliforme), portée par un très long pédoncule. Fleurs roses, pourpres ou violacées, en groupe de 7 à 20. Calice tubulé à dents aigües. Corolle à étendard dépassant nettement les ailes et la carène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Astragale_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astragale_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des gousses à peu près glabres, cylindriques et arquées, d'une longueur moyenne de 3 cm.
 Sur les autres projets Wikimedia :
 Astragale de Montpellier, sur Wikimedia CommonsAstragale de Montpellier, sur Wikispecies
 </t>
